--- a/2024 Individual goals setting_Luu Lam Thanh Tung_63200325_Form (1).xlsx
+++ b/2024 Individual goals setting_Luu Lam Thanh Tung_63200325_Form (1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63200325\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094D136-C13A-4F4D-BA9A-AF426C3740B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{DF1A4305-F96D-4FD0-B478-5761BDB52164}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22152" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="5" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Form_Eng!$A$1:$L$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Form_Vie!$A$1:$L$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>VNB Goal setting schedule</t>
   </si>
@@ -327,11 +321,35 @@
   <si>
     <t xml:space="preserve"> - Sharing a seminar about drawing wireframe</t>
   </si>
+  <si>
+    <t>I have joined 3 projects: NQMS, AI help desk and Construction. I finished 100% tasks of these 3 projects. For the project AI Helpdesk: no bug found. For the project Construction: fixing only 2 defects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I helped Vu Huy Anh to improve 1 feature of the project Home Subscription. </t>
+  </si>
+  <si>
+    <t>I completed KPI for 2 projects that I leaded: AI helpdesk and Construction. For AI helpdesk: no defect found. For Construction: only 2 defects found</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I haven't made a presentation about wireframe but I supported my coworkers for organizing 2 presentations about API and Git. I also made 2 training about SQL for the BM team.</t>
+  </si>
+  <si>
+    <t>Since this May, I have interviewed many candidates and many of them onboarded succeffully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have joined the 1 year company's birthday, the team building to Sam Son and organizing 2 team building for the team LG U+. I plan to make team building more frequently for LG U+ </t>
+  </si>
+  <si>
+    <t>I have done this course</t>
+  </si>
+  <si>
+    <t>'I have done this course</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -1422,9 +1440,6 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1443,9 +1458,6 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1488,9 +1500,6 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1524,60 +1533,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1611,6 +1566,84 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,29 +1662,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1676,67 +1694,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8398896F-8CA1-04B9-CA27-D713044FBDFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9220200" y="1400175"/>
-          <a:ext cx="8048625" cy="10820400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="A6A6A6">
-            <a:alpha val="62000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,7 +1739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1834,7 +1791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2028,14 +1985,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE120F4-193F-4E38-93F2-C874567436F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2044,70 +2001,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="85"/>
-    <col min="2" max="2" width="18.15234375" style="85" customWidth="1"/>
-    <col min="3" max="3" width="23.15234375" style="85" customWidth="1"/>
-    <col min="4" max="4" width="20.15234375" style="85" customWidth="1"/>
-    <col min="5" max="5" width="18.84375" style="85" customWidth="1"/>
-    <col min="6" max="6" width="21.3046875" style="85" customWidth="1"/>
-    <col min="7" max="7" width="18.3828125" style="85" customWidth="1"/>
-    <col min="8" max="8" width="11.3046875" style="85" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="85"/>
+    <col min="1" max="1" width="9" style="83"/>
+    <col min="2" max="2" width="18.109375" style="83" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="83" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="83" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="83" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="83" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.45">
-      <c r="B2" s="89" t="s">
+    <row r="2" spans="2:8" ht="15.6">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="86" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="88" t="s">
+    <row r="5" spans="2:8" s="84" customFormat="1" ht="84.75" customHeight="1">
+      <c r="B5" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="86" customFormat="1"/>
-    <row r="7" spans="2:8" s="86" customFormat="1"/>
-    <row r="8" spans="2:8" s="86" customFormat="1"/>
-    <row r="9" spans="2:8" s="86" customFormat="1"/>
-    <row r="10" spans="2:8" s="86" customFormat="1"/>
-    <row r="11" spans="2:8" s="86" customFormat="1"/>
+    <row r="6" spans="2:8" s="84" customFormat="1"/>
+    <row r="7" spans="2:8" s="84" customFormat="1"/>
+    <row r="8" spans="2:8" s="84" customFormat="1"/>
+    <row r="9" spans="2:8" s="84" customFormat="1"/>
+    <row r="10" spans="2:8" s="84" customFormat="1"/>
+    <row r="11" spans="2:8" s="84" customFormat="1"/>
     <row r="14" spans="2:8">
-      <c r="H14" s="87"/>
+      <c r="H14" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,25 +2072,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33FCB06-DB28-4281-A2D3-FC1A14AF2003}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.69140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.3828125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="33" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.69140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.3828125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="19.15234375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.3828125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.3828125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="19.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2143,10 +2100,10 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="36.75" customHeight="1">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="125"/>
+      <c r="C2" s="104"/>
       <c r="D2" s="20" t="s">
         <v>14</v>
       </c>
@@ -2162,19 +2119,19 @@
       <c r="H2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="128"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B3" s="126">
+      <c r="B3" s="105">
         <v>2024</v>
       </c>
-      <c r="C3" s="127"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="19">
         <v>63200325</v>
       </c>
@@ -2188,11 +2145,11 @@
         <v>61</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="129" t="s">
+      <c r="I3" s="82"/>
+      <c r="J3" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="129"/>
+      <c r="K3" s="108"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6"/>
@@ -2209,216 +2166,232 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133" t="s">
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="40.5" customHeight="1">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="115"/>
       <c r="K7" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="76" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B9" s="108">
+    <row r="9" spans="2:11" s="9" customFormat="1" ht="117" customHeight="1">
+      <c r="B9" s="116">
         <v>1</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <v>0.3</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="82"/>
+      <c r="G9" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="91" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="98">
         <v>0.15</v>
       </c>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="82"/>
-    </row>
-    <row r="11" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="77" t="s">
+      <c r="G10" s="146" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="80"/>
+    </row>
+    <row r="11" spans="2:11" s="9" customFormat="1" ht="82.2" customHeight="1" thickBot="1">
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="77">
         <v>0.15</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="82"/>
-    </row>
-    <row r="12" spans="2:11" s="9" customFormat="1" ht="71.25" customHeight="1">
-      <c r="B12" s="114">
+      <c r="G11" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="80"/>
+    </row>
+    <row r="12" spans="2:11" s="9" customFormat="1" ht="105.6" customHeight="1">
+      <c r="B12" s="122">
         <v>2</v>
       </c>
-      <c r="C12" s="115"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="45" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="64">
         <v>0.1</v>
       </c>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="147" t="s">
+        <v>79</v>
+      </c>
       <c r="H12" s="63"/>
       <c r="I12" s="65"/>
       <c r="J12" s="63"/>
       <c r="K12" s="66"/>
     </row>
-    <row r="13" spans="2:11" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
+    <row r="13" spans="2:11" s="9" customFormat="1" ht="51.6" customHeight="1">
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="64">
         <v>0.1</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="147" t="s">
+        <v>80</v>
+      </c>
       <c r="H13" s="63"/>
       <c r="I13" s="65"/>
       <c r="J13" s="63"/>
       <c r="K13" s="66"/>
     </row>
-    <row r="14" spans="2:11" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
+    <row r="14" spans="2:11" s="9" customFormat="1" ht="103.2" customHeight="1">
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="95">
         <v>0.1</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="97"/>
+      <c r="G14" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="2:11" s="9" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B15" s="114">
+      <c r="B15" s="122">
         <v>3</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="92" t="s">
+      <c r="C15" s="124"/>
+      <c r="D15" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="91">
         <v>0.05</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="97"/>
+      <c r="G15" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="94"/>
     </row>
     <row r="16" spans="2:11" s="9" customFormat="1" ht="81.75" customHeight="1" thickBot="1">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="70" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="71">
         <v>0.05</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="73"/>
+      <c r="G16" s="72" t="s">
+        <v>83</v>
+      </c>
       <c r="H16" s="67"/>
       <c r="I16" s="68"/>
       <c r="J16" s="67"/>
@@ -2446,12 +2419,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:K6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="B9:C11"/>
@@ -2462,16 +2429,21 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35D6C8A-2ED5-4C64-8703-006B83216E55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2480,16 +2452,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.15234375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.69140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="33" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.69140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.3828125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="19.15234375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.3828125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.3828125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="19.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2546,55 +2518,55 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="133" t="s">
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="2:11" ht="40.5" customHeight="1">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="115"/>
       <c r="K7" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="36.75" customHeight="1">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="140"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
       <c r="G8" s="35" t="s">
         <v>32</v>
       </c>
@@ -2612,10 +2584,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B9" s="146">
+      <c r="B9" s="137">
         <v>1</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="136" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -2638,8 +2610,8 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B10" s="143"/>
-      <c r="C10" s="141"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="53" t="s">
         <v>47</v>
       </c>
@@ -2660,10 +2632,10 @@
       <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B11" s="148">
+      <c r="B11" s="139">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="138" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="45" t="s">
@@ -2686,8 +2658,8 @@
       <c r="K11" s="51"/>
     </row>
     <row r="12" spans="2:11" s="9" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B12" s="144"/>
-      <c r="C12" s="142"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="52" t="s">
         <v>53</v>
       </c>
@@ -2708,10 +2680,10 @@
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="2:11" s="9" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B13" s="143">
+      <c r="B13" s="134">
         <v>3</v>
       </c>
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="132" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="59" t="s">
@@ -2734,8 +2706,8 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11" s="9" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="144"/>
-      <c r="C14" s="142"/>
+      <c r="B14" s="135"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="26" t="s">
         <v>58</v>
       </c>
@@ -2804,12 +2776,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="I7:J7"/>
@@ -2819,6 +2785,12 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2836,43 +2808,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac7a844c-e98a-494b-964f-f94abd183b76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="ea6e8a30-a17b-4304-9621-5ff2fea59bb2">
-      <UserInfo>
-        <DisplayName>CHU VAN LUONG</DisplayName>
-        <AccountId>21</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>NGUYEN HOANG VAN</DisplayName>
-        <AccountId>20</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>LE THE ANH(LE THE ANH)</DisplayName>
-        <AccountId>22</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PHAM THI THU HANG</DisplayName>
-        <AccountId>24</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>PHAM TUAN KHANH</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000B0103F371E4E4408CCEBE61E62D1199" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c2c5d0328fc521d00fb90ee33e01c201">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac7a844c-e98a-494b-964f-f94abd183b76" xmlns:ns3="ea6e8a30-a17b-4304-9621-5ff2fea59bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21b91342a9ecb21eb9171a42f9b21d8c" ns2:_="" ns3:_="">
     <xsd:import namespace="ac7a844c-e98a-494b-964f-f94abd183b76"/>
@@ -3083,6 +3018,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac7a844c-e98a-494b-964f-f94abd183b76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="ea6e8a30-a17b-4304-9621-5ff2fea59bb2">
+      <UserInfo>
+        <DisplayName>CHU VAN LUONG</DisplayName>
+        <AccountId>21</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>NGUYEN HOANG VAN</DisplayName>
+        <AccountId>20</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>LE THE ANH(LE THE ANH)</DisplayName>
+        <AccountId>22</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PHAM THI THU HANG</DisplayName>
+        <AccountId>24</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>PHAM TUAN KHANH</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A723E538-0EC6-4CBC-A670-6243D0161464}">
   <ds:schemaRefs>
@@ -3092,17 +3064,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3E526B-BE12-4AD7-AB70-052A43B28E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ac7a844c-e98a-494b-964f-f94abd183b76"/>
-    <ds:schemaRef ds:uri="ea6e8a30-a17b-4304-9621-5ff2fea59bb2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8DED32-1C54-458C-9227-8CE710DFADFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3119,4 +3080,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3E526B-BE12-4AD7-AB70-052A43B28E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac7a844c-e98a-494b-964f-f94abd183b76"/>
+    <ds:schemaRef ds:uri="ea6e8a30-a17b-4304-9621-5ff2fea59bb2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2024 Individual goals setting_Luu Lam Thanh Tung_63200325_Form (1).xlsx
+++ b/2024 Individual goals setting_Luu Lam Thanh Tung_63200325_Form (1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63200325\Documents\LG\doc\CVMI\test repo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B6231-1964-4AF8-8C20-5FC88CF026B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22152" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="5" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Form_Eng!$A$1:$L$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Form_Vie!$A$1:$L$16</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>VNB Goal setting schedule</t>
   </si>
@@ -340,16 +346,13 @@
     <t xml:space="preserve">I have joined the 1 year company's birthday, the team building to Sam Son and organizing 2 team building for the team LG U+. I plan to make team building more frequently for LG U+ </t>
   </si>
   <si>
-    <t>I have done this course</t>
-  </si>
-  <si>
-    <t>'I have done this course</t>
+    <t>I have been done this course</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -1440,9 +1443,6 @@
     <xf numFmtId="9" fontId="9" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1533,6 +1533,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1662,13 +1671,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1739,7 +1742,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1791,7 +1794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1985,14 +1988,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2001,70 +2004,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="83"/>
-    <col min="2" max="2" width="18.109375" style="83" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="83" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="83" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="83" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="83" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="83" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="83" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="83"/>
+    <col min="1" max="1" width="9" style="82"/>
+    <col min="2" max="2" width="18.07421875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="23.07421875" style="82" customWidth="1"/>
+    <col min="4" max="4" width="20.07421875" style="82" customWidth="1"/>
+    <col min="5" max="5" width="18.84375" style="82" customWidth="1"/>
+    <col min="6" max="6" width="21.3046875" style="82" customWidth="1"/>
+    <col min="7" max="7" width="18.3046875" style="82" customWidth="1"/>
+    <col min="8" max="8" width="11.3046875" style="82" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="82"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6">
-      <c r="B2" s="87" t="s">
+    <row r="2" spans="2:8" ht="15.45">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="32.25" customHeight="1">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="84" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="2:8" s="83" customFormat="1" ht="84.75" customHeight="1">
+      <c r="B5" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="84" customFormat="1"/>
-    <row r="7" spans="2:8" s="84" customFormat="1"/>
-    <row r="8" spans="2:8" s="84" customFormat="1"/>
-    <row r="9" spans="2:8" s="84" customFormat="1"/>
-    <row r="10" spans="2:8" s="84" customFormat="1"/>
-    <row r="11" spans="2:8" s="84" customFormat="1"/>
+    <row r="6" spans="2:8" s="83" customFormat="1"/>
+    <row r="7" spans="2:8" s="83" customFormat="1"/>
+    <row r="8" spans="2:8" s="83" customFormat="1"/>
+    <row r="9" spans="2:8" s="83" customFormat="1"/>
+    <row r="10" spans="2:8" s="83" customFormat="1"/>
+    <row r="11" spans="2:8" s="83" customFormat="1"/>
     <row r="14" spans="2:8">
-      <c r="H14" s="85"/>
+      <c r="H14" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2072,25 +2075,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.69140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.3046875" style="5" customWidth="1"/>
     <col min="4" max="4" width="33" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="19.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.3046875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.69140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.3046875" style="5" customWidth="1"/>
+    <col min="8" max="9" width="19.07421875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.3046875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2100,10 +2103,10 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="36.75" customHeight="1">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="106"/>
       <c r="D2" s="20" t="s">
         <v>14</v>
       </c>
@@ -2119,19 +2122,19 @@
       <c r="H2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="107"/>
+      <c r="K2" s="109"/>
     </row>
     <row r="3" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B3" s="105">
+      <c r="B3" s="107">
         <v>2024</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="19">
         <v>63200325</v>
       </c>
@@ -2145,11 +2148,11 @@
         <v>61</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="108" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="108"/>
+      <c r="K3" s="110"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="6"/>
@@ -2166,233 +2169,249 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="112" t="s">
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="2:11" ht="40.5" customHeight="1">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="115"/>
+      <c r="J7" s="117"/>
       <c r="K7" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="75" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="73" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="9" customFormat="1" ht="117" customHeight="1">
-      <c r="B9" s="116">
+      <c r="B9" s="118">
         <v>1</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>0.3</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B10" s="118"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="89" t="s">
+      <c r="H9" s="77">
+        <v>100</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="79"/>
+    </row>
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="65.599999999999994" customHeight="1">
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <v>0.15</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="146" t="s">
+      <c r="G10" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="80"/>
+      <c r="H10" s="77">
+        <v>80</v>
+      </c>
+      <c r="I10" s="78"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="2:11" s="9" customFormat="1" ht="82.2" customHeight="1" thickBot="1">
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="76" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>0.15</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="80"/>
-    </row>
-    <row r="12" spans="2:11" s="9" customFormat="1" ht="105.6" customHeight="1">
-      <c r="B12" s="122">
+      <c r="H11" s="77">
+        <v>90</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="79"/>
+    </row>
+    <row r="12" spans="2:11" s="9" customFormat="1" ht="105.65" customHeight="1">
+      <c r="B12" s="124">
         <v>2</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="45" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="64">
         <v>0.1</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="63"/>
+      <c r="H12" s="63">
+        <v>90</v>
+      </c>
       <c r="I12" s="65"/>
       <c r="J12" s="63"/>
       <c r="K12" s="66"/>
     </row>
-    <row r="13" spans="2:11" s="9" customFormat="1" ht="51.6" customHeight="1">
-      <c r="B13" s="118"/>
-      <c r="C13" s="119"/>
+    <row r="13" spans="2:11" s="9" customFormat="1" ht="83.15" customHeight="1">
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="64">
         <v>0.1</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="63"/>
+      <c r="H13" s="63">
+        <v>100</v>
+      </c>
       <c r="I13" s="65"/>
       <c r="J13" s="63"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" s="9" customFormat="1" ht="103.2" customHeight="1">
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="94">
         <v>0.1</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="148" t="s">
+      <c r="G14" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="94"/>
+      <c r="H14" s="91">
+        <v>100</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="2:11" s="9" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
-      <c r="B15" s="122">
+      <c r="B15" s="124">
         <v>3</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="126"/>
+      <c r="D15" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="90">
         <v>0.05</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="148" t="s">
+      <c r="G15" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="94"/>
+      <c r="H15" s="91">
+        <v>100</v>
+      </c>
+      <c r="I15" s="92"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="2:11" s="9" customFormat="1" ht="81.75" customHeight="1" thickBot="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="70" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="71">
         <v>0.05</v>
       </c>
-      <c r="F16" s="101" t="s">
+      <c r="F16" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="67"/>
+      <c r="G16" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="67">
+        <v>100</v>
+      </c>
       <c r="I16" s="68"/>
       <c r="J16" s="67"/>
       <c r="K16" s="69"/>
@@ -2406,7 +2425,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="4">
         <f>SUMPRODUCT($E$9:$E$16,H9:H16)</f>
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="J18" s="4">
         <f t="array" ref="J18">SUMPRODUCT($E$9:$E$16,J9:J16)</f>
@@ -2443,7 +2462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2452,16 +2471,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="33" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="19.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.3046875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.69140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.3046875" style="5" customWidth="1"/>
+    <col min="8" max="9" width="19.07421875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.3046875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.3046875" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2518,55 +2537,55 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="32.25" customHeight="1">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="112" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="2:11" ht="40.5" customHeight="1">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="115"/>
+      <c r="J7" s="117"/>
       <c r="K7" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="36.75" customHeight="1">
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="35" t="s">
         <v>32</v>
       </c>
@@ -2584,10 +2603,10 @@
       </c>
     </row>
     <row r="9" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B9" s="137">
+      <c r="B9" s="139">
         <v>1</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="138" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -2610,8 +2629,8 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="2:11" s="9" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B10" s="134"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="53" t="s">
         <v>47</v>
       </c>
@@ -2632,10 +2651,10 @@
       <c r="K10" s="58"/>
     </row>
     <row r="11" spans="2:11" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="B11" s="139">
+      <c r="B11" s="141">
         <v>2</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="140" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="45" t="s">
@@ -2658,8 +2677,8 @@
       <c r="K11" s="51"/>
     </row>
     <row r="12" spans="2:11" s="9" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B12" s="135"/>
-      <c r="C12" s="133"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="135"/>
       <c r="D12" s="52" t="s">
         <v>53</v>
       </c>
@@ -2680,10 +2699,10 @@
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="2:11" s="9" customFormat="1" ht="46.5" customHeight="1">
-      <c r="B13" s="134">
+      <c r="B13" s="136">
         <v>3</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="134" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="59" t="s">
@@ -2706,8 +2725,8 @@
       <c r="K13" s="62"/>
     </row>
     <row r="14" spans="2:11" s="9" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="135"/>
-      <c r="C14" s="133"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="26" t="s">
         <v>58</v>
       </c>
